--- a/Intelligibility/mergedIntelligibility_bm25.xlsx
+++ b/Intelligibility/mergedIntelligibility_bm25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE26"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2918,99 +2918,6 @@
         <v>-0.1937262588019832</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr"/>
-      <c r="B26" t="n">
-        <v>-0.2944959277056188</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-0.2194250236657498</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-0.3198528012523318</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-0.2986190577088531</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-0.3489168439378887</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-0.3199146379163246</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-0.3114926438927634</v>
-      </c>
-      <c r="I26" t="n">
-        <v>-0.3053889797765906</v>
-      </c>
-      <c r="J26" t="n">
-        <v>-0.3253658019820117</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-0.3264910760930999</v>
-      </c>
-      <c r="L26" t="n">
-        <v>-0.2089677124954782</v>
-      </c>
-      <c r="M26" t="n">
-        <v>-0.2407088751573719</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-0.2026680354343467</v>
-      </c>
-      <c r="O26" t="n">
-        <v>-0.3463041151459787</v>
-      </c>
-      <c r="P26" t="n">
-        <v>-0.3127212582901371</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>-0.1895905407884959</v>
-      </c>
-      <c r="R26" t="n">
-        <v>-0.2970089712425204</v>
-      </c>
-      <c r="S26" t="n">
-        <v>-0.1967238438103902</v>
-      </c>
-      <c r="T26" t="n">
-        <v>-0.2129998494396415</v>
-      </c>
-      <c r="U26" t="n">
-        <v>-0.1949458715419865</v>
-      </c>
-      <c r="V26" t="n">
-        <v>-0.2058545731520313</v>
-      </c>
-      <c r="W26" t="n">
-        <v>-0.3124253915897093</v>
-      </c>
-      <c r="X26" t="n">
-        <v>-0.2047246250528324</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>-0.1946267873378764</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>-0.1220580825773221</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>-0.2209778732187722</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>-0.2711077196691804</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>-0.06522147711203589</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>-0.2279880109044796</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>-0.2161226254185641</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
